--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -63,13 +63,16 @@
     <t>Manager at Mugdho Corporation</t>
   </si>
   <si>
-    <t>Twenty Six Lac Taka Only.</t>
-  </si>
-  <si>
     <t>Cash Handover by Rahinul Kabir to Altab, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Altab</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>্</t>
+  </si>
+  <si>
+    <t>Seventeen Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -492,26 +495,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,40 +537,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,36 +1160,36 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44683</v>
+        <v>44694</v>
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1197,53 +1200,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>2800</v>
+        <v>2004</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1002000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>39</v>
+      </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1800</v>
+        <v>882</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
@@ -1253,17 +1258,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1272,32 +1279,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1307,28 +1320,26 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -1348,11 +1359,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1360,22 +1371,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44683</v>
+        <v>44694</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="45" t="str">
         <f>A3</f>
         <v>Cash Handover by Rahinul Kabir to Altab, Order as per Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1465,10 +1476,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>2600000</v>
@@ -1479,11 +1490,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Twenty Six Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Seventeen Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1500,19 +1511,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1520,10 +1531,7 @@
         <v>Rahinul Kabir</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="24" t="str">
-        <f>C20</f>
-        <v>Altab</v>
-      </c>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="str">
@@ -1535,6 +1543,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1543,12 +1557,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Currency Value</t>
   </si>
@@ -63,16 +63,19 @@
     <t>Manager at Mugdho Corporation</t>
   </si>
   <si>
-    <t>Cash Handover by Rahinul Kabir to Altab, Order as per Abdul Mannan Tipu</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>্</t>
   </si>
   <si>
-    <t>Seventeen Lac Taka Only.</t>
+    <t>Ten Lac Taka Only.</t>
+  </si>
+  <si>
+    <t>Abdul Mannan Tipu</t>
+  </si>
+  <si>
+    <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
   </si>
 </sst>
 </file>
@@ -495,13 +498,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,48 +562,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1173,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,23 +1220,21 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>2004</v>
+        <v>1100</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>1002000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
-        <v>39</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1241,11 +1242,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>882</v>
+        <v>500</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>88200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,12 +1263,10 @@
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,30 +1279,30 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>1700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="40"/>
+      <c r="B14" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1320,19 +1319,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1346,7 +1345,9 @@
         <v>11</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1359,11 +1360,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1371,22 +1372,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44694</v>
+        <v>44700</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="str">
+      <c r="A26" s="41" t="str">
         <f>A3</f>
-        <v>Cash Handover by Rahinul Kabir to Altab, Order as per Abdul Mannan Tipu</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+        <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1404,11 +1405,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>1020</v>
+        <v>400</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>1020000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1416,11 +1417,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>1400000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1438,11 +1439,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1476,13 +1477,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>2600000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,11 +1491,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Seventeen Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>Ten Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1511,19 +1512,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1539,16 +1540,13 @@
         <v>Manager at Mugdho Corporation</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="27"/>
+      <c r="C44" s="27" t="str">
+        <f>C21</f>
+        <v>Abdul Mannan Tipu</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1557,6 +1555,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Currency Value</t>
   </si>
@@ -63,19 +63,13 @@
     <t>Manager at Mugdho Corporation</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>্</t>
-  </si>
-  <si>
-    <t>Ten Lac Taka Only.</t>
-  </si>
-  <si>
     <t>Abdul Mannan Tipu</t>
   </si>
   <si>
     <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
+  </si>
+  <si>
+    <t>Sixteen Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,26 +492,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,40 +534,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,50 +1143,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44700</v>
+        <v>44708</v>
       </c>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1203,31 +1197,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
@@ -1237,19 +1231,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
@@ -1259,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
@@ -1269,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1278,38 +1272,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1319,19 +1307,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1346,7 +1334,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,11 +1348,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1372,22 +1360,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44700</v>
+        <v>44708</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="45" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1405,11 +1393,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>400000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1417,11 +1405,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1439,11 +1427,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1477,13 +1465,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,11 +1479,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Ten Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Sixteen Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1512,19 +1500,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1547,6 +1535,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1555,14 +1549,8 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -63,13 +63,13 @@
     <t>Manager at Mugdho Corporation</t>
   </si>
   <si>
-    <t>Abdul Mannan Tipu</t>
-  </si>
-  <si>
     <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Sixteen Lac Taka Only.</t>
+    <t>Altab</t>
+  </si>
+  <si>
+    <t>Twenty Five Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,13 +1170,13 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44708</v>
+        <v>44751</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
@@ -1202,11 +1202,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>530000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,21 +1214,23 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>1900</v>
+        <v>2490</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>950000</v>
+        <v>1245000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,21 +1238,23 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>500</v>
+      </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1284,7 @@
       <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1338,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44708</v>
+        <v>44751</v>
       </c>
       <c r="C25" s="33"/>
     </row>
@@ -1393,11 +1397,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>530000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1405,21 +1409,23 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>1900</v>
+        <v>2490</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>950000</v>
+        <v>1245000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <v>100</v>
+      </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1427,21 +1433,23 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>500</v>
+      </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1471,7 +1479,7 @@
       <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1489,7 @@
       </c>
       <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Sixteen Lac Taka Only.</v>
+        <v>Twenty Five Lac Taka Only.</v>
       </c>
       <c r="C37" s="38"/>
     </row>
@@ -1530,7 +1538,7 @@
       <c r="B44" s="25"/>
       <c r="C44" s="27" t="str">
         <f>C21</f>
-        <v>Abdul Mannan Tipu</v>
+        <v>Altab</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -69,7 +69,7 @@
     <t>Altab</t>
   </si>
   <si>
-    <t>Twenty Five Lac Taka Only.</t>
+    <t>Sixty Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -492,13 +492,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,48 +556,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,11 +1158,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1170,21 +1170,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1202,11 +1202,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,23 +1214,21 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>2490</v>
+        <v>6300</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>1245000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
-        <v>100</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,11 +1236,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>210000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,11 +1248,11 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,23 +1276,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1311,19 +1309,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1352,11 +1350,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1364,22 +1362,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="str">
+      <c r="A26" s="41" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1397,11 +1395,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1409,23 +1407,21 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>2490</v>
+        <v>6300</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>1245000</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4">
-        <v>100</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1433,11 +1429,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>210000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1445,11 +1441,11 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1473,13 +1469,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,11 +1483,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Twenty Five Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>Sixty Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1508,19 +1504,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1543,12 +1539,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1557,6 +1547,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -69,7 +69,10 @@
     <t>Altab</t>
   </si>
   <si>
-    <t>Sixty Lac Taka Only.</t>
+    <t>Twenty Five Lac Taka Only.</t>
+  </si>
+  <si>
+    <t>Daffodils, Ishwardi, Pabna</t>
   </si>
 </sst>
 </file>
@@ -492,26 +495,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,40 +537,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,11 +1161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1170,21 +1173,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1202,11 +1205,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>2500</v>
+        <v>1290</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>2500000</v>
+        <v>1290000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,11 +1217,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>3150000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,23 +1239,21 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>310000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4">
-        <v>800</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,23 +1277,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>6000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1309,26 +1310,28 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -1336,7 +1339,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,11 +1353,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1362,22 +1365,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="45" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1395,11 +1398,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>2500</v>
+        <v>1290</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>2500000</v>
+        <v>1290000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1407,11 +1410,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>6300</v>
+        <v>2100</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>3150000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1429,23 +1432,21 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>310000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
-        <v>800</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1469,13 +1470,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>6000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,11 +1484,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Sixty Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Twenty Five Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1504,19 +1505,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1524,7 +1525,9 @@
         <v>Rahinul Kabir</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
+      <c r="C43" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="str">
@@ -1534,11 +1537,17 @@
       <c r="B44" s="25"/>
       <c r="C44" s="27" t="str">
         <f>C21</f>
-        <v>Altab</v>
+        <v>Daffodils, Ishwardi, Pabna</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1547,12 +1556,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -69,10 +69,10 @@
     <t>Altab</t>
   </si>
   <si>
-    <t>Twenty Five Lac Taka Only.</t>
+    <t>Daffodils, Ishwardi, Pabna</t>
   </si>
   <si>
-    <t>Daffodils, Ishwardi, Pabna</t>
+    <t xml:space="preserve"> Ten Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -495,13 +495,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,48 +559,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1173,21 +1173,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44778</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,11 +1205,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>1290</v>
+        <v>440</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>1290000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,11 +1217,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>1050000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,11 +1239,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,23 +1277,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="40"/>
+      <c r="B14" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1310,19 +1310,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,11 +1353,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1365,22 +1365,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44756</v>
+        <v>44778</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="str">
+      <c r="A26" s="41" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1398,11 +1398,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>1290</v>
+        <v>440</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>1290000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1410,11 +1410,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>1050000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1432,11 +1432,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>160000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1470,13 +1470,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,11 +1484,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Twenty Five Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v xml:space="preserve"> Ten Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1505,19 +1505,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1542,12 +1542,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1556,6 +1550,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -495,26 +495,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,40 +537,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1173,21 +1173,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,11 +1205,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>440000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,12 +1238,10 @@
       <c r="A9" s="8">
         <v>100</v>
       </c>
-      <c r="B9" s="4">
-        <v>600</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,10 +1275,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
         <v>1000000</v>
@@ -1290,10 +1288,10 @@
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1310,19 +1308,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1353,11 +1351,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1365,22 +1363,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="45" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1398,11 +1396,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>440000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1431,12 +1429,10 @@
       <c r="A32" s="19">
         <v>100</v>
       </c>
-      <c r="B32" s="4">
-        <v>600</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1470,10 +1466,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>1000000</v>
@@ -1484,11 +1480,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
         <v xml:space="preserve"> Ten Lac Taka Only.</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1505,19 +1501,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1542,6 +1538,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1550,12 +1552,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -66,13 +66,13 @@
     <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Altab</t>
+    <t xml:space="preserve"> Ten Lac Taka Only.</t>
   </si>
   <si>
-    <t>Daffodils, Ishwardi, Pabna</t>
+    <t>Anowar</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ten Lac Taka Only.</t>
+    <t>bKash Office Natore</t>
   </si>
 </sst>
 </file>
@@ -495,13 +495,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,48 +559,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1173,21 +1173,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,11 +1205,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,47 +1238,55 @@
       <c r="A9" s="8">
         <v>100</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>1900</v>
+      </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>200</v>
+      </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
         <v>1000000</v>
@@ -1288,10 +1296,10 @@
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="40"/>
+      <c r="B14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1308,19 +1316,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1328,7 +1336,7 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1337,7 +1345,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,11 +1359,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1363,22 +1371,22 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="str">
+      <c r="A26" s="41" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1396,11 +1404,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1429,47 +1437,55 @@
       <c r="A32" s="19">
         <v>100</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>1900</v>
+      </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>100</v>
+      </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>200</v>
+      </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>100</v>
+      </c>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
         <v>1000000</v>
@@ -1480,11 +1496,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
         <v xml:space="preserve"> Ten Lac Taka Only.</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1501,19 +1517,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1522,7 +1538,7 @@
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1531,19 +1547,12 @@
         <v>Manager at Mugdho Corporation</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="27" t="str">
-        <f>C21</f>
-        <v>Daffodils, Ishwardi, Pabna</v>
+      <c r="C44" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1552,6 +1561,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -66,13 +66,13 @@
     <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ten Lac Taka Only.</t>
-  </si>
-  <si>
     <t>Anowar</t>
   </si>
   <si>
     <t>bKash Office Natore</t>
+  </si>
+  <si>
+    <t>Three Lac Twenty Four Thousand Tow Hundred Fifty Only.</t>
   </si>
 </sst>
 </file>
@@ -495,26 +495,26 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,41 +525,41 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,24 +1148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="C2" s="33"/>
     </row>
@@ -1185,9 +1185,9 @@
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,11 +1205,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>300000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,11 +1217,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,11 +1239,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1900</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>190000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,55 +1251,51 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>200</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>1000000</v>
+        <v>324250</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="54"/>
+      <c r="B14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="53"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1316,19 +1312,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1336,7 +1332,7 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,11 +1355,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1371,7 +1367,7 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="C25" s="33"/>
     </row>
@@ -1384,9 +1380,9 @@
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1404,11 +1400,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>300000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1416,11 +1412,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1438,11 +1434,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1900</v>
+        <v>2</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>190000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1450,45 +1446,41 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="4">
-        <v>200</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
-        <v>100</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>1000000</v>
+        <v>324250</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,11 +1488,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="54" t="str">
         <f>B14</f>
-        <v xml:space="preserve"> Ten Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Three Lac Twenty Four Thousand Tow Hundred Fifty Only.</v>
+      </c>
+      <c r="C37" s="55"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1517,19 +1509,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1537,8 +1529,9 @@
         <v>Rahinul Kabir</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="24" t="s">
-        <v>14</v>
+      <c r="C43" s="24" t="str">
+        <f>C20</f>
+        <v>Anowar</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1547,12 +1540,19 @@
         <v>Manager at Mugdho Corporation</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="27" t="s">
-        <v>15</v>
+      <c r="C44" s="27" t="str">
+        <f>C21</f>
+        <v>bKash Office Natore</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1561,12 +1561,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Currency Value</t>
   </si>
@@ -66,13 +66,13 @@
     <t>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Anowar</t>
+    <t>Four Lac Eighty Thousad Only.</t>
   </si>
   <si>
-    <t>bKash Office Natore</t>
+    <t>Rajib</t>
   </si>
   <si>
-    <t>Three Lac Twenty Four Thousand Tow Hundred Fifty Only.</t>
+    <t>Supervisor Daffodils</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,9 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -495,16 +492,40 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,38 +537,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -555,11 +555,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,46 +1145,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <f ca="1">TODAY()</f>
-        <v>44796</v>
-      </c>
-      <c r="C2" s="33"/>
+        <v>44833</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1205,23 +1202,21 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>274000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>500</v>
       </c>
-      <c r="B7" s="4">
-        <v>100</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,24 +1233,20 @@
       <c r="A9" s="8">
         <v>100</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,13 +1270,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>324250</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="53"/>
     </row>
@@ -1314,25 +1305,25 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="29" t="s">
-        <v>13</v>
+      <c r="C20" s="24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1332,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,34 +1346,34 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f ca="1">B2</f>
-        <v>44796</v>
-      </c>
-      <c r="C25" s="33"/>
+        <v>44833</v>
+      </c>
+      <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="40" t="str">
         <f>A3</f>
         <v>Cash Handover Rahinul Kabir to Abdul Mannan Tipu</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1400,23 +1391,21 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>274000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>500</v>
       </c>
-      <c r="B30" s="4">
-        <v>100</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1433,24 +1422,20 @@
       <c r="A32" s="19">
         <v>100</v>
       </c>
-      <c r="B32" s="4">
-        <v>2</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1474,13 +1459,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>324250</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,11 +1473,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="54" t="str">
+      <c r="B37" s="50" t="str">
         <f>B14</f>
-        <v>Three Lac Twenty Four Thousand Tow Hundred Fifty Only.</v>
-      </c>
-      <c r="C37" s="55"/>
+        <v>Four Lac Eighty Thousad Only.</v>
+      </c>
+      <c r="C37" s="51"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1511,17 +1496,17 @@
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="54"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="37"/>
+      <c r="C41" s="54"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1529,9 +1514,8 @@
         <v>Rahinul Kabir</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="24" t="str">
-        <f>C20</f>
-        <v>Anowar</v>
+      <c r="C43" s="24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1540,19 +1524,12 @@
         <v>Manager at Mugdho Corporation</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="27" t="str">
-        <f>C21</f>
-        <v>bKash Office Natore</v>
+      <c r="C44" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1561,6 +1538,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
